--- a/src/main/resources/upload/导入.xlsx
+++ b/src/main/resources/upload/导入.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="22260" windowHeight="12640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="证据清单" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="157">
   <si>
     <t>证据清单</t>
   </si>
@@ -669,6 +669,58 @@
   </si>
   <si>
     <t>结论1：被告人刘谨钊系国有事业单位中从事公务的人员,应以国家工作人员论。被告人刘谨钊利用职务上的便利,收受他人财物共计11900元,为他人谋取利益,其行为已构成受贿罪。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原告</t>
+    <rPh sb="0" eb="1">
+      <t>yuan gao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原告/被告</t>
+    <rPh sb="0" eb="1">
+      <t>yuan gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei gao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告</t>
+    <rPh sb="0" eb="1">
+      <t>bei gao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -910,27 +962,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,6 +1017,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1243,35 +1313,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K53"/>
+  <dimension ref="B1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="4" max="4" width="54.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="54.5" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1285,831 +1356,898 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B3" s="21">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="2:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="6" t="s">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="6" t="s">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="42" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="I14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="18"/>
+      <c r="J17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="10">
+      <c r="I18" s="18"/>
+      <c r="J18" s="10">
         <v>41248</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="56" x14ac:dyDescent="0.2">
       <c r="B19" s="18">
         <v>5</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>41248</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" ht="56" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="18"/>
+      <c r="J20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" ht="56" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" ht="56" x14ac:dyDescent="0.2">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" ht="56" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" ht="56" x14ac:dyDescent="0.2">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="18"/>
+      <c r="J24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B25" s="18">
         <v>6</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="H25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="I25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="2:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="18"/>
+      <c r="J26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B27" s="18">
         <v>7</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="H27" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="I27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="18"/>
+      <c r="J28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="18"/>
+      <c r="J29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="K29" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="18"/>
+      <c r="J30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B31" s="18">
         <v>8</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="I31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="K31" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="28" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="18"/>
+      <c r="J32" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="18"/>
+      <c r="J33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="G34" s="37"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="18"/>
+      <c r="J34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" ht="42" x14ac:dyDescent="0.2">
       <c r="B35" s="18">
         <v>9</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="H35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="I35" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="K35" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" ht="42" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="18"/>
+      <c r="J36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="42" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="10">
+      <c r="I37" s="18"/>
+      <c r="J37" s="10">
         <v>41248</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="K37" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" ht="42" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="18"/>
+      <c r="J38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="K38" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="18"/>
+      <c r="J39" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="K39" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="18">
         <v>10</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="H40" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="I40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="J40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="K40" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="18"/>
+      <c r="J41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="18">
         <v>11</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="H42" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="I42" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="J42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="18"/>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="18"/>
+      <c r="J43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="G44" s="37"/>
       <c r="H44" s="18"/>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="18"/>
+      <c r="J44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="K44" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5">
         <v>12</v>
       </c>
@@ -2122,266 +2260,226 @@
       <c r="E45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="J45" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B46" s="18">
         <v>13</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="J46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="K46" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="18"/>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="18"/>
+      <c r="J47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="K47" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="18">
         <v>14</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="H48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="I48" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="J48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="K48" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="18"/>
+      <c r="J49" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="G50" s="37"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="18"/>
+      <c r="J50" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="K50" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="18">
         <v>15</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="H51" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="I51" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="J51" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="18"/>
+      <c r="J52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="K52" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="G53" s="37"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="18"/>
+      <c r="J53" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="K53" s="5" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="E3:E5"/>
+  <mergeCells count="113">
+    <mergeCell ref="F51:F53"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="F19:F24"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B18"/>
@@ -2391,16 +2489,87 @@
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="H14:H18"/>
     <mergeCell ref="H19:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="I35:I39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F48:F50"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2426,15 +2595,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="2:8" ht="56" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
@@ -2460,13 +2629,13 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>128</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2483,9 +2652,9 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="6" t="s">
         <v>56</v>
       </c>
@@ -2500,9 +2669,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="6" t="s">
         <v>83</v>
       </c>
@@ -2517,9 +2686,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="6" t="s">
         <v>83</v>
       </c>
@@ -2534,9 +2703,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="6" t="s">
         <v>84</v>
       </c>
@@ -2551,9 +2720,9 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="6" t="s">
         <v>85</v>
       </c>
@@ -2568,9 +2737,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="6" t="s">
         <v>87</v>
       </c>
@@ -2585,9 +2754,9 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="10">
         <v>41248</v>
       </c>
@@ -2602,9 +2771,9 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="6" t="s">
         <v>85</v>
       </c>
@@ -2619,9 +2788,9 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="6" t="s">
         <v>84</v>
       </c>
@@ -2636,9 +2805,9 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="6" t="s">
         <v>134</v>
       </c>
@@ -2653,9 +2822,9 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="6" t="s">
         <v>84</v>
       </c>
@@ -2670,9 +2839,9 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="10" t="s">
         <v>92</v>
       </c>
@@ -2687,9 +2856,9 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="10" t="s">
         <v>93</v>
       </c>
@@ -2704,9 +2873,9 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="8" t="s">
         <v>135</v>
       </c>
@@ -2721,9 +2890,9 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="10">
         <v>41248</v>
       </c>
@@ -2738,9 +2907,9 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="11">
         <v>41248</v>
       </c>
@@ -2755,9 +2924,9 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="6" t="s">
         <v>84</v>
       </c>
@@ -2772,9 +2941,9 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="6" t="s">
         <v>93</v>
       </c>
@@ -2789,9 +2958,9 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="6" t="s">
         <v>136</v>
       </c>
@@ -2806,9 +2975,9 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="6" t="s">
         <v>85</v>
       </c>
@@ -2823,9 +2992,9 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="6" t="s">
         <v>56</v>
       </c>
@@ -2840,9 +3009,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="6" t="s">
         <v>92</v>
       </c>
@@ -2857,9 +3026,9 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="6" t="s">
         <v>85</v>
       </c>
@@ -2874,9 +3043,9 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="6" t="s">
         <v>136</v>
       </c>
@@ -2891,9 +3060,9 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="6" t="s">
         <v>85</v>
       </c>
@@ -2908,9 +3077,9 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="10">
         <v>41248</v>
       </c>
@@ -2925,9 +3094,9 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="6" t="s">
         <v>56</v>
       </c>
@@ -2942,9 +3111,9 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="6" t="s">
         <v>134</v>
       </c>
@@ -2959,9 +3128,9 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="6" t="s">
         <v>84</v>
       </c>
@@ -2976,9 +3145,9 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6">
         <v>10</v>
@@ -2991,9 +3160,9 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="6" t="s">
         <v>114</v>
       </c>
@@ -3008,9 +3177,9 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="6" t="s">
         <v>85</v>
       </c>
@@ -3025,9 +3194,9 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="6" t="s">
         <v>56</v>
       </c>
@@ -3042,9 +3211,9 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="6" t="s">
         <v>85</v>
       </c>
@@ -3059,13 +3228,13 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B38" s="24">
+      <c r="B38" s="26">
         <v>2</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="26" t="s">
         <v>130</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -3082,9 +3251,9 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="6" t="s">
         <v>84</v>
       </c>
@@ -3099,9 +3268,9 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="6" t="s">
         <v>102</v>
       </c>
@@ -3116,9 +3285,9 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="6" t="s">
         <v>104</v>
       </c>
@@ -3133,9 +3302,9 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="6" t="s">
         <v>112</v>
       </c>
@@ -3150,9 +3319,9 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="6" t="s">
         <v>84</v>
       </c>
@@ -3167,9 +3336,9 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="6" t="s">
         <v>106</v>
       </c>
@@ -3184,9 +3353,9 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="6" t="s">
         <v>99</v>
       </c>
@@ -3201,9 +3370,9 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="6" t="s">
         <v>104</v>
       </c>
@@ -3218,9 +3387,9 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="6" t="s">
         <v>84</v>
       </c>
@@ -3235,9 +3404,9 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
         <v>61</v>
       </c>
@@ -3252,9 +3421,9 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="6" t="s">
         <v>62</v>
       </c>
@@ -3288,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="92" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3301,12 +3470,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -3329,10 +3498,10 @@
       <c r="C3" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="32" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3343,8 +3512,8 @@
       <c r="C4" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="2:5" ht="56" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
@@ -3353,8 +3522,8 @@
       <c r="C5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="2:5" ht="56" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
